--- a/tests/spreadsheets/albums.xlsx
+++ b/tests/spreadsheets/albums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julian/Desktop/pina_bausch_online_archiv/05_Development/superspreader/tests/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C099DD-1277-1340-9A39-76C6C3C1F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE950C9-373F-1A47-9D85-45EF62F525EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{AEA88CA7-DB4E-854B-B403-00CA6CDC1E3D}"/>
   </bookViews>

--- a/tests/spreadsheets/albums.xlsx
+++ b/tests/spreadsheets/albums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julian/Desktop/pina_bausch_online_archiv/05_Development/superspreader/tests/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE950C9-373F-1A47-9D85-45EF62F525EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB707F71-D8CA-1A4A-AD3B-A65839AB76AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{AEA88CA7-DB4E-854B-B403-00CA6CDC1E3D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{AEA88CA7-DB4E-854B-B403-00CA6CDC1E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Albums" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Artist</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E9D592-39BB-2349-8BF6-29E55E91C682}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +438,7 @@
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,41 +455,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44568</v>
-      </c>
-      <c r="D3">
-        <v>4.3</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44568</v>
+      </c>
+      <c r="D4">
+        <v>4.3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>44627</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>3.9</v>
       </c>
-      <c r="E4">
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tests/spreadsheets/albums.xlsx
+++ b/tests/spreadsheets/albums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julian/Desktop/pina_bausch_online_archiv/05_Development/superspreader/tests/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB707F71-D8CA-1A4A-AD3B-A65839AB76AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90449015-21B4-5D4C-8B8F-D4F3BAE71DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{AEA88CA7-DB4E-854B-B403-00CA6CDC1E3D}"/>
+    <workbookView xWindow="-23660" yWindow="-10980" windowWidth="28800" windowHeight="17500" xr2:uid="{AEA88CA7-DB4E-854B-B403-00CA6CDC1E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Albums" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Artist</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Fix Yourself, Not The World</t>
+  </si>
+  <si>
+    <t>Kokoroko</t>
+  </si>
+  <si>
+    <t>Could We Be More</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,19 +498,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>43191</v>
+        <v>44774</v>
       </c>
       <c r="D7">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
